--- a/Raw data of performance.xlsx
+++ b/Raw data of performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia/Cynthia WorkSpace/serverless performance variability/GitHub/Serverless_Variance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Code/Serverless_Variance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6EDC5-DC68-4043-9CAA-AEB08D39C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522A583-7EA4-E944-8985-BF47C383690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E6D1F013-C0EE-3346-AF80-1AB958FC109E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{E6D1F013-C0EE-3346-AF80-1AB958FC109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cold-start performance" sheetId="4" r:id="rId1"/>
@@ -35,201 +35,200 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
-    <t>Fun1</t>
+    <t>Func1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fun2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Func2</t>
   </si>
   <si>
-    <t>Fun3</t>
+    <t>Func3</t>
   </si>
   <si>
-    <t>Fun4</t>
+    <t>Func4</t>
   </si>
   <si>
-    <t>Fun5</t>
+    <t>Func5</t>
   </si>
   <si>
-    <t>Fun6</t>
+    <t>Func6</t>
   </si>
   <si>
-    <t>Fun7</t>
+    <t>Func7</t>
   </si>
   <si>
-    <t>Fun8</t>
+    <t>Func8</t>
   </si>
   <si>
-    <t>Fun9</t>
+    <t>Func9</t>
   </si>
   <si>
-    <t>Fun10</t>
+    <t>Func10</t>
   </si>
   <si>
-    <t>Fun11</t>
+    <t>Func11</t>
   </si>
   <si>
-    <t>Fun12</t>
+    <t>Func12</t>
   </si>
   <si>
-    <t>Fun13</t>
+    <t>Func13</t>
   </si>
   <si>
-    <t>Fun14</t>
+    <t>Func14</t>
   </si>
   <si>
-    <t>Fun15</t>
+    <t>Func15</t>
   </si>
   <si>
-    <t>Fun16</t>
+    <t>Func16</t>
   </si>
   <si>
-    <t>Fun17</t>
+    <t>Func17</t>
   </si>
   <si>
-    <t>Fun18</t>
+    <t>Func18</t>
   </si>
   <si>
-    <t>Fun19</t>
+    <t>Func19</t>
   </si>
   <si>
-    <t>Fun20</t>
+    <t>Func20</t>
   </si>
   <si>
-    <t>Fun21</t>
+    <t>Func21</t>
   </si>
   <si>
-    <t>Fun22</t>
+    <t>Func22</t>
   </si>
   <si>
-    <t>Fun23</t>
+    <t>Func23</t>
   </si>
   <si>
-    <t>Fun24</t>
+    <t>Func24</t>
   </si>
   <si>
-    <t>Fun25</t>
+    <t>Func25</t>
   </si>
   <si>
-    <t>Fun26</t>
+    <t>Func26</t>
   </si>
   <si>
-    <t>Fun27</t>
+    <t>Func27</t>
   </si>
   <si>
-    <t>Fun28</t>
+    <t>Func28</t>
   </si>
   <si>
-    <t>Fun29</t>
+    <t>Func29</t>
   </si>
   <si>
-    <t>Fun30</t>
+    <t>Func30</t>
   </si>
   <si>
-    <t>Fun31</t>
+    <t>Func31</t>
   </si>
   <si>
-    <t>Fun32</t>
+    <t>Func32</t>
   </si>
   <si>
-    <t>Fun33</t>
+    <t>Func33</t>
   </si>
   <si>
-    <t>Fun34</t>
+    <t>Func34</t>
   </si>
   <si>
-    <t>Fun35</t>
+    <t>Func35</t>
   </si>
   <si>
-    <t>Fun36</t>
+    <t>Func36</t>
   </si>
   <si>
-    <t>Fun37</t>
+    <t>Func37</t>
   </si>
   <si>
-    <t>Fun38</t>
+    <t>Func38</t>
   </si>
   <si>
-    <t>Fun39</t>
+    <t>Func39</t>
   </si>
   <si>
-    <t>Fun40</t>
+    <t>Func40</t>
   </si>
   <si>
-    <t>Fun41</t>
+    <t>Func41</t>
   </si>
   <si>
-    <t>Fun42</t>
+    <t>Func42</t>
   </si>
   <si>
-    <t>Fun43</t>
+    <t>Func43</t>
   </si>
   <si>
-    <t>Fun44</t>
+    <t>Func44</t>
   </si>
   <si>
-    <t>Fun45</t>
+    <t>Func45</t>
   </si>
   <si>
-    <t>Fun46</t>
+    <t>Func46</t>
   </si>
   <si>
-    <t>Fun47</t>
+    <t>Func47</t>
   </si>
   <si>
-    <t>Fun48</t>
+    <t>Func48</t>
   </si>
   <si>
-    <t>Fun49</t>
+    <t>Func49</t>
   </si>
   <si>
-    <t>Fun50</t>
+    <t>Func50</t>
   </si>
   <si>
-    <t>Fun51</t>
+    <t>Func51</t>
   </si>
   <si>
-    <t>Fun52</t>
+    <t>Func52</t>
   </si>
   <si>
-    <t>Fun53</t>
+    <t>Func53</t>
   </si>
   <si>
-    <t>Fun54</t>
+    <t>Func54</t>
   </si>
   <si>
-    <t>Fun55</t>
+    <t>Func55</t>
   </si>
   <si>
-    <t>Fun56</t>
+    <t>Func56</t>
   </si>
   <si>
-    <t>Fun57</t>
+    <t>Func57</t>
   </si>
   <si>
-    <t>Fun58</t>
+    <t>Func58</t>
   </si>
   <si>
-    <t>Fun59</t>
+    <t>Func59</t>
   </si>
   <si>
-    <t>Fun60</t>
+    <t>Func60</t>
   </si>
   <si>
-    <t>Fun61</t>
+    <t>Func61</t>
   </si>
   <si>
-    <t>Fun62</t>
+    <t>Func62</t>
   </si>
   <si>
-    <t>Fun63</t>
+    <t>Func63</t>
   </si>
   <si>
-    <t>Fun64</t>
+    <t>Func64</t>
   </si>
   <si>
-    <t>Fun65</t>
+    <t>Func65</t>
   </si>
 </sst>
 </file>
@@ -613,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8647244-BE7A-CB4E-9959-86DEF6EEDC4C}">
   <dimension ref="A1:BM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10676,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946A5AB-A813-7447-AF8E-BC69EF05093B}">
   <dimension ref="A1:BM51"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
